--- a/Code/Results/Cases/Case_2_209/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_209/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.001821475867387</v>
+        <v>1.025522496608464</v>
       </c>
       <c r="D2">
-        <v>1.018802541060954</v>
+        <v>1.03066626895736</v>
       </c>
       <c r="E2">
-        <v>1.006863857296592</v>
+        <v>1.048619401804276</v>
       </c>
       <c r="F2">
-        <v>1.010582399905291</v>
+        <v>1.052975150287387</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041507057036557</v>
+        <v>1.032632857840732</v>
       </c>
       <c r="J2">
-        <v>1.023947843060046</v>
+        <v>1.030691046903377</v>
       </c>
       <c r="K2">
-        <v>1.030005997019164</v>
+        <v>1.033476619816118</v>
       </c>
       <c r="L2">
-        <v>1.018228388805238</v>
+        <v>1.051378741284249</v>
       </c>
       <c r="M2">
-        <v>1.021896247799001</v>
+        <v>1.055722397776916</v>
       </c>
       <c r="N2">
-        <v>1.011978829177811</v>
+        <v>1.014279502194414</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.005427837371118</v>
+        <v>1.026274657509716</v>
       </c>
       <c r="D3">
-        <v>1.021362005704439</v>
+        <v>1.031219440644416</v>
       </c>
       <c r="E3">
-        <v>1.012037542770762</v>
+        <v>1.049804016735474</v>
       </c>
       <c r="F3">
-        <v>1.015974038654331</v>
+        <v>1.054209044575133</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042371591951742</v>
+        <v>1.032765141769633</v>
       </c>
       <c r="J3">
-        <v>1.025771619838448</v>
+        <v>1.031083595773807</v>
       </c>
       <c r="K3">
-        <v>1.031728661380363</v>
+        <v>1.033838879628324</v>
       </c>
       <c r="L3">
-        <v>1.022518683444811</v>
+        <v>1.052374474540896</v>
       </c>
       <c r="M3">
-        <v>1.026406528458652</v>
+        <v>1.056768165742035</v>
       </c>
       <c r="N3">
-        <v>1.012584938627668</v>
+        <v>1.014409663098113</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.007716807061243</v>
+        <v>1.026761694012317</v>
       </c>
       <c r="D4">
-        <v>1.022988717142215</v>
+        <v>1.031577615346163</v>
       </c>
       <c r="E4">
-        <v>1.015321178558587</v>
+        <v>1.050571574866488</v>
       </c>
       <c r="F4">
-        <v>1.019395700875511</v>
+        <v>1.055008516555137</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042911273939372</v>
+        <v>1.032849690326169</v>
       </c>
       <c r="J4">
-        <v>1.026925154982307</v>
+        <v>1.031337256182172</v>
       </c>
       <c r="K4">
-        <v>1.032817385266977</v>
+        <v>1.034072815488076</v>
       </c>
       <c r="L4">
-        <v>1.025238141400296</v>
+        <v>1.053019239593225</v>
       </c>
       <c r="M4">
-        <v>1.029265539775587</v>
+        <v>1.05744534237714</v>
       </c>
       <c r="N4">
-        <v>1.012968289291626</v>
+        <v>1.014493757343662</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.008668739607832</v>
+        <v>1.026966523605136</v>
       </c>
       <c r="D5">
-        <v>1.023665724747235</v>
+        <v>1.031728246814353</v>
       </c>
       <c r="E5">
-        <v>1.016686910343016</v>
+        <v>1.050894503980588</v>
       </c>
       <c r="F5">
-        <v>1.020818765192669</v>
+        <v>1.05534486862741</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043133518840475</v>
+        <v>1.032884983082129</v>
       </c>
       <c r="J5">
-        <v>1.027403904514678</v>
+        <v>1.031443811488675</v>
       </c>
       <c r="K5">
-        <v>1.033269018800968</v>
+        <v>1.034171048457428</v>
       </c>
       <c r="L5">
-        <v>1.026368367805479</v>
+        <v>1.053290408984004</v>
       </c>
       <c r="M5">
-        <v>1.030453786609476</v>
+        <v>1.057730146073181</v>
       </c>
       <c r="N5">
-        <v>1.013127386326156</v>
+        <v>1.014529079446749</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.00882797546853</v>
+        <v>1.027000920010404</v>
       </c>
       <c r="D6">
-        <v>1.02377900012817</v>
+        <v>1.031753541669332</v>
       </c>
       <c r="E6">
-        <v>1.016915377981677</v>
+        <v>1.050948739734295</v>
       </c>
       <c r="F6">
-        <v>1.021056819245047</v>
+        <v>1.055401358527529</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043170565217264</v>
+        <v>1.03289089412914</v>
       </c>
       <c r="J6">
-        <v>1.027483929925266</v>
+        <v>1.031461697667822</v>
       </c>
       <c r="K6">
-        <v>1.03334449850955</v>
+        <v>1.034187535509634</v>
       </c>
       <c r="L6">
-        <v>1.026557388328599</v>
+        <v>1.053335945985794</v>
       </c>
       <c r="M6">
-        <v>1.030652511612941</v>
+        <v>1.057777972829232</v>
       </c>
       <c r="N6">
-        <v>1.013153979912244</v>
+        <v>1.01453500834864</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.007729567081176</v>
+        <v>1.026764430645062</v>
       </c>
       <c r="D7">
-        <v>1.022997790074411</v>
+        <v>1.031579627877796</v>
       </c>
       <c r="E7">
-        <v>1.015339484514898</v>
+        <v>1.05057588888745</v>
       </c>
       <c r="F7">
-        <v>1.019414775605381</v>
+        <v>1.055013009909323</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042914261697198</v>
+        <v>1.032850162898461</v>
       </c>
       <c r="J7">
-        <v>1.026931576193105</v>
+        <v>1.031338680308791</v>
       </c>
       <c r="K7">
-        <v>1.032823443660442</v>
+        <v>1.034074128529753</v>
       </c>
       <c r="L7">
-        <v>1.025253294075398</v>
+        <v>1.053022862538687</v>
       </c>
       <c r="M7">
-        <v>1.02928147024123</v>
+        <v>1.057449147471664</v>
       </c>
       <c r="N7">
-        <v>1.012970423193478</v>
+        <v>1.014494229442031</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.003049694611532</v>
+        <v>1.025776622000803</v>
       </c>
       <c r="D8">
-        <v>1.019673732304015</v>
+        <v>1.03085316617721</v>
       </c>
       <c r="E8">
-        <v>1.008625989917853</v>
+        <v>1.049019534279231</v>
       </c>
       <c r="F8">
-        <v>1.012418828536658</v>
+        <v>1.053391931374857</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041803369028788</v>
+        <v>1.032677780466816</v>
       </c>
       <c r="J8">
-        <v>1.024569800067866</v>
+        <v>1.030823781490302</v>
       </c>
       <c r="K8">
-        <v>1.030593644937265</v>
+        <v>1.033599144005392</v>
       </c>
       <c r="L8">
-        <v>1.019690370812635</v>
+        <v>1.051715159107542</v>
       </c>
       <c r="M8">
-        <v>1.023433166052804</v>
+        <v>1.056075717601364</v>
       </c>
       <c r="N8">
-        <v>1.012185530616011</v>
+        <v>1.01432351709702</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9944463363996334</v>
+        <v>1.024038632487922</v>
       </c>
       <c r="D9">
-        <v>1.013582161178857</v>
+        <v>1.029574922483181</v>
       </c>
       <c r="E9">
-        <v>0.9962748572423162</v>
+        <v>1.046284934469218</v>
       </c>
       <c r="F9">
-        <v>0.9995457607034747</v>
+        <v>1.050543486943659</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039690634013804</v>
+        <v>1.03236601926295</v>
       </c>
       <c r="J9">
-        <v>1.020196744707294</v>
+        <v>1.029913863701649</v>
       </c>
       <c r="K9">
-        <v>1.026458654807814</v>
+        <v>1.032758603136234</v>
       </c>
       <c r="L9">
-        <v>1.00942866280841</v>
+        <v>1.049414322491522</v>
       </c>
       <c r="M9">
-        <v>1.01264621192479</v>
+        <v>1.053659340624081</v>
       </c>
       <c r="N9">
-        <v>1.010732188972338</v>
+        <v>1.01402173046928</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9884481432094198</v>
+        <v>1.022881846831755</v>
       </c>
       <c r="D10">
-        <v>1.009350755120694</v>
+        <v>1.028724114678334</v>
       </c>
       <c r="E10">
-        <v>0.9876450166157947</v>
+        <v>1.044467151794706</v>
       </c>
       <c r="F10">
-        <v>0.9905498672463999</v>
+        <v>1.048649949625134</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038171701023536</v>
+        <v>1.032152832428658</v>
       </c>
       <c r="J10">
-        <v>1.017127703938861</v>
+        <v>1.029305559443032</v>
       </c>
       <c r="K10">
-        <v>1.02355320657505</v>
+        <v>1.032195912154671</v>
       </c>
       <c r="L10">
-        <v>1.002240985640918</v>
+        <v>1.047882768524748</v>
       </c>
       <c r="M10">
-        <v>1.005091869094916</v>
+        <v>1.052050952021864</v>
       </c>
       <c r="N10">
-        <v>1.009712284004908</v>
+        <v>1.013819907515253</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9857831066268373</v>
+        <v>1.022381408898359</v>
       </c>
       <c r="D11">
-        <v>1.007474996055849</v>
+        <v>1.028356046666514</v>
       </c>
       <c r="E11">
-        <v>0.9838032220171776</v>
+        <v>1.043681278815207</v>
       </c>
       <c r="F11">
-        <v>0.9865448326241135</v>
+        <v>1.04783130816894</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037486314390181</v>
+        <v>1.032059259201236</v>
       </c>
       <c r="J11">
-        <v>1.015759522929959</v>
+        <v>1.029041767242806</v>
       </c>
       <c r="K11">
-        <v>1.022257308386241</v>
+        <v>1.031951720883916</v>
       </c>
       <c r="L11">
-        <v>0.9990371892316142</v>
+        <v>1.047220138234264</v>
       </c>
       <c r="M11">
-        <v>1.001725034210976</v>
+        <v>1.051355098208609</v>
       </c>
       <c r="N11">
-        <v>1.00925764285569</v>
+        <v>1.013732370275914</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9847825101778261</v>
+        <v>1.022195594236362</v>
       </c>
       <c r="D12">
-        <v>1.006771431012751</v>
+        <v>1.028219382107417</v>
       </c>
       <c r="E12">
-        <v>0.9823593983001281</v>
+        <v>1.043389556104418</v>
       </c>
       <c r="F12">
-        <v>0.9850396215527871</v>
+        <v>1.047527418899382</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037227436903054</v>
+        <v>1.032024312895603</v>
       </c>
       <c r="J12">
-        <v>1.015245162514774</v>
+        <v>1.028943725036807</v>
       </c>
       <c r="K12">
-        <v>1.021770040856703</v>
+        <v>1.031860936912173</v>
       </c>
       <c r="L12">
-        <v>0.9978325520615542</v>
+        <v>1.046974088870725</v>
       </c>
       <c r="M12">
-        <v>1.000459163156621</v>
+        <v>1.051096715206761</v>
       </c>
       <c r="N12">
-        <v>1.009086729557819</v>
+        <v>1.013699833359963</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9849976333426561</v>
+        <v>1.022235448908636</v>
       </c>
       <c r="D13">
-        <v>1.006922661700621</v>
+        <v>1.028248694727437</v>
       </c>
       <c r="E13">
-        <v>0.9826698815614826</v>
+        <v>1.043452123231675</v>
       </c>
       <c r="F13">
-        <v>0.9853633073681287</v>
+        <v>1.047592595562851</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037283163618982</v>
+        <v>1.03203181754258</v>
       </c>
       <c r="J13">
-        <v>1.015355777524637</v>
+        <v>1.028964758034325</v>
       </c>
       <c r="K13">
-        <v>1.021874832868418</v>
+        <v>1.031880414006922</v>
       </c>
       <c r="L13">
-        <v>0.9980916262614621</v>
+        <v>1.047026863635645</v>
       </c>
       <c r="M13">
-        <v>1.000731403288418</v>
+        <v>1.051152135258177</v>
       </c>
       <c r="N13">
-        <v>1.009123484735264</v>
+        <v>1.013706813614964</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9857006179540261</v>
+        <v>1.022366047958444</v>
       </c>
       <c r="D14">
-        <v>1.007416980079292</v>
+        <v>1.028344748855513</v>
       </c>
       <c r="E14">
-        <v>0.983684224280303</v>
+        <v>1.04365716114429</v>
       </c>
       <c r="F14">
-        <v>0.9864207761940103</v>
+        <v>1.047806184701973</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037465003919602</v>
+        <v>1.032056374381957</v>
       </c>
       <c r="J14">
-        <v>1.015717132893054</v>
+        <v>1.02903366422209</v>
       </c>
       <c r="K14">
-        <v>1.022217152721033</v>
+        <v>1.031944218287967</v>
       </c>
       <c r="L14">
-        <v>0.9989379166874335</v>
+        <v>1.047199798067007</v>
       </c>
       <c r="M14">
-        <v>1.001620714003959</v>
+        <v>1.05133373839448</v>
       </c>
       <c r="N14">
-        <v>1.009243557216441</v>
+        <v>1.013729681204792</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9861323188341063</v>
+        <v>1.022446523698737</v>
       </c>
       <c r="D15">
-        <v>1.007720632803227</v>
+        <v>1.028403937950566</v>
       </c>
       <c r="E15">
-        <v>0.984306934533997</v>
+        <v>1.043783516331905</v>
       </c>
       <c r="F15">
-        <v>0.9870699568369613</v>
+        <v>1.047937809261026</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037576468458876</v>
+        <v>1.032071479627564</v>
       </c>
       <c r="J15">
-        <v>1.015938951981141</v>
+        <v>1.029076111935608</v>
       </c>
       <c r="K15">
-        <v>1.022427276537373</v>
+        <v>1.031983519580001</v>
       </c>
       <c r="L15">
-        <v>0.9994573820433038</v>
+        <v>1.047306359400101</v>
       </c>
       <c r="M15">
-        <v>1.002166595234933</v>
+        <v>1.05144564174062</v>
       </c>
       <c r="N15">
-        <v>1.009317264996884</v>
+        <v>1.013743767817722</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9886235429270566</v>
+        <v>1.022915069022417</v>
       </c>
       <c r="D16">
-        <v>1.009474302038682</v>
+        <v>1.028748549385093</v>
       </c>
       <c r="E16">
-        <v>0.98789768498473</v>
+        <v>1.044519333644841</v>
       </c>
       <c r="F16">
-        <v>0.9908132660838038</v>
+        <v>1.048704306926075</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038216593324771</v>
+        <v>1.032159016035009</v>
       </c>
       <c r="J16">
-        <v>1.017217656709333</v>
+        <v>1.029323058273046</v>
       </c>
       <c r="K16">
-        <v>1.023638394863779</v>
+        <v>1.032212106985465</v>
       </c>
       <c r="L16">
-        <v>1.002451611688685</v>
+        <v>1.04792675650549</v>
       </c>
       <c r="M16">
-        <v>1.005313222775019</v>
+        <v>1.052097145923195</v>
       </c>
       <c r="N16">
-        <v>1.00974217578707</v>
+        <v>1.013825714013906</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9901677325609577</v>
+        <v>1.02320909875702</v>
       </c>
       <c r="D17">
-        <v>1.010562482507141</v>
+        <v>1.028964806491943</v>
       </c>
       <c r="E17">
-        <v>0.9901212479840257</v>
+        <v>1.044981223652014</v>
       </c>
       <c r="F17">
-        <v>0.9931312289876216</v>
+        <v>1.049185450978422</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03861062327765</v>
+        <v>1.032213587844315</v>
       </c>
       <c r="J17">
-        <v>1.018009065209418</v>
+        <v>1.029477856769984</v>
       </c>
       <c r="K17">
-        <v>1.024387813514174</v>
+        <v>1.032355349342369</v>
       </c>
       <c r="L17">
-        <v>1.004304733348953</v>
+        <v>1.048316060154224</v>
       </c>
       <c r="M17">
-        <v>1.007260774125221</v>
+        <v>1.052505974700067</v>
       </c>
       <c r="N17">
-        <v>1.010005169017817</v>
+        <v>1.013877077692258</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.991061927979717</v>
+        <v>1.02338064540736</v>
       </c>
       <c r="D18">
-        <v>1.011193019676604</v>
+        <v>1.029090978048991</v>
       </c>
       <c r="E18">
-        <v>0.9914081559724401</v>
+        <v>1.045250755857558</v>
       </c>
       <c r="F18">
-        <v>0.9944727447552726</v>
+        <v>1.049466216999948</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038837793362048</v>
+        <v>1.032245296863581</v>
       </c>
       <c r="J18">
-        <v>1.0184669101046</v>
+        <v>1.029568110187494</v>
       </c>
       <c r="K18">
-        <v>1.024821304079655</v>
+        <v>1.032438847787075</v>
       </c>
       <c r="L18">
-        <v>1.005376862429614</v>
+        <v>1.048543186780407</v>
       </c>
       <c r="M18">
-        <v>1.008387572793712</v>
+        <v>1.05274449447231</v>
       </c>
       <c r="N18">
-        <v>1.010157318668335</v>
+        <v>1.013907023092843</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9913657369297278</v>
+        <v>1.023439145813917</v>
       </c>
       <c r="D19">
-        <v>1.011407315878493</v>
+        <v>1.029134004743904</v>
       </c>
       <c r="E19">
-        <v>0.9918452822589057</v>
+        <v>1.045342679676198</v>
       </c>
       <c r="F19">
-        <v>0.9949284150590924</v>
+        <v>1.049561971810889</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038914805129549</v>
+        <v>1.032256088144745</v>
       </c>
       <c r="J19">
-        <v>1.018622391417356</v>
+        <v>1.029598877809388</v>
       </c>
       <c r="K19">
-        <v>1.024968503767037</v>
+        <v>1.032467309680074</v>
       </c>
       <c r="L19">
-        <v>1.005740969002455</v>
+        <v>1.048620639992842</v>
       </c>
       <c r="M19">
-        <v>1.008770251752817</v>
+        <v>1.052825833208466</v>
       </c>
       <c r="N19">
-        <v>1.010208988224909</v>
+        <v>1.013917231287996</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9900027319053228</v>
+        <v>1.023177547579022</v>
       </c>
       <c r="D20">
-        <v>1.010446165404543</v>
+        <v>1.028941600783469</v>
       </c>
       <c r="E20">
-        <v>0.9898837283397601</v>
+        <v>1.044931654861325</v>
       </c>
       <c r="F20">
-        <v>0.9928836283824292</v>
+        <v>1.049133816073728</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038568623777594</v>
+        <v>1.032207745399396</v>
       </c>
       <c r="J20">
-        <v>1.017924546353623</v>
+        <v>1.029461252272531</v>
       </c>
       <c r="K20">
-        <v>1.02430778534964</v>
+        <v>1.032339986205546</v>
       </c>
       <c r="L20">
-        <v>1.004106823584059</v>
+        <v>1.048274286141165</v>
       </c>
       <c r="M20">
-        <v>1.007052775549149</v>
+        <v>1.052462105362632</v>
       </c>
       <c r="N20">
-        <v>1.009977082199194</v>
+        <v>1.013871568318314</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9854939055978288</v>
+        <v>1.022327587841767</v>
       </c>
       <c r="D21">
-        <v>1.007271606406691</v>
+        <v>1.028316461852625</v>
       </c>
       <c r="E21">
-        <v>0.9833859983772234</v>
+        <v>1.043596777473623</v>
       </c>
       <c r="F21">
-        <v>0.9861098718527306</v>
+        <v>1.047743282766806</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037411576168264</v>
+        <v>1.03204914821893</v>
       </c>
       <c r="J21">
-        <v>1.015610894868247</v>
+        <v>1.02901337466195</v>
       </c>
       <c r="K21">
-        <v>1.022116513226971</v>
+        <v>1.031925431730398</v>
       </c>
       <c r="L21">
-        <v>0.9986891156531803</v>
+        <v>1.047148870954418</v>
       </c>
       <c r="M21">
-        <v>1.001359263449991</v>
+        <v>1.051280258368816</v>
       </c>
       <c r="N21">
-        <v>1.009208255861856</v>
+        <v>1.013722947865565</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9825969457359768</v>
+        <v>1.02179359170223</v>
       </c>
       <c r="D22">
-        <v>1.005235995526217</v>
+        <v>1.027923715510285</v>
       </c>
       <c r="E22">
-        <v>0.979202786757136</v>
+        <v>1.042758560047488</v>
       </c>
       <c r="F22">
-        <v>0.9817487335071501</v>
+        <v>1.046870101853027</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036659174174945</v>
+        <v>1.031948338405777</v>
       </c>
       <c r="J22">
-        <v>1.014120446591763</v>
+        <v>1.02873144090084</v>
       </c>
       <c r="K22">
-        <v>1.020704435079196</v>
+        <v>1.031664319859697</v>
       </c>
       <c r="L22">
-        <v>0.9951978138166375</v>
+        <v>1.046441746330358</v>
       </c>
       <c r="M22">
-        <v>0.9976906343420265</v>
+        <v>1.050537693703513</v>
       </c>
       <c r="N22">
-        <v>1.008713019427804</v>
+        <v>1.013629378974199</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9841387393346194</v>
+        <v>1.02207663406097</v>
       </c>
       <c r="D23">
-        <v>1.006318968611528</v>
+        <v>1.028131888493373</v>
       </c>
       <c r="E23">
-        <v>0.981430026249372</v>
+        <v>1.04320281346728</v>
       </c>
       <c r="F23">
-        <v>0.9840707248690145</v>
+        <v>1.047332887261256</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03706044675322</v>
+        <v>1.032001883060763</v>
       </c>
       <c r="J23">
-        <v>1.01491404220273</v>
+        <v>1.028880930799735</v>
       </c>
       <c r="K23">
-        <v>1.021456340690338</v>
+        <v>1.031802783940124</v>
       </c>
       <c r="L23">
-        <v>0.9970569787291303</v>
+        <v>1.046816562223371</v>
       </c>
       <c r="M23">
-        <v>0.9996441867209646</v>
+        <v>1.050931293128649</v>
       </c>
       <c r="N23">
-        <v>1.008976705933505</v>
+        <v>1.013678993381338</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9900773086632634</v>
+        <v>1.023191804062218</v>
       </c>
       <c r="D24">
-        <v>1.010498736993879</v>
+        <v>1.028952086344197</v>
       </c>
       <c r="E24">
-        <v>0.9899910842517813</v>
+        <v>1.044954052494445</v>
       </c>
       <c r="F24">
-        <v>0.9929955408470259</v>
+        <v>1.049157147284768</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038587609756995</v>
+        <v>1.032210385725152</v>
       </c>
       <c r="J24">
-        <v>1.017962748419205</v>
+        <v>1.029468755247484</v>
       </c>
       <c r="K24">
-        <v>1.024343957841761</v>
+        <v>1.032346928307796</v>
       </c>
       <c r="L24">
-        <v>1.004196277512659</v>
+        <v>1.048293161857418</v>
       </c>
       <c r="M24">
-        <v>1.00714678944084</v>
+        <v>1.052481927851979</v>
       </c>
       <c r="N24">
-        <v>1.009989777279912</v>
+        <v>1.013874057811052</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9967150505944378</v>
+        <v>1.024487620613445</v>
       </c>
       <c r="D25">
-        <v>1.015186010408207</v>
+        <v>1.029905147233473</v>
       </c>
       <c r="E25">
-        <v>0.9995341492136306</v>
+        <v>1.046990960958669</v>
       </c>
       <c r="F25">
-        <v>1.002943034278033</v>
+        <v>1.051278920189581</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040255822073158</v>
+        <v>1.032447561745661</v>
       </c>
       <c r="J25">
-        <v>1.021353474384501</v>
+        <v>1.030149401645568</v>
       </c>
       <c r="K25">
-        <v>1.027553069883709</v>
+        <v>1.032976318339297</v>
       </c>
       <c r="L25">
-        <v>1.012139701222551</v>
+        <v>1.050008730631638</v>
       </c>
       <c r="M25">
-        <v>1.015495834581784</v>
+        <v>1.054283585219596</v>
       </c>
       <c r="N25">
-        <v>1.011116612413743</v>
+        <v>1.01409986238528</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_209/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_209/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025522496608464</v>
+        <v>1.001821475867386</v>
       </c>
       <c r="D2">
-        <v>1.03066626895736</v>
+        <v>1.018802541060954</v>
       </c>
       <c r="E2">
-        <v>1.048619401804276</v>
+        <v>1.006863857296591</v>
       </c>
       <c r="F2">
-        <v>1.052975150287387</v>
+        <v>1.01058239990529</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032632857840732</v>
+        <v>1.041507057036556</v>
       </c>
       <c r="J2">
-        <v>1.030691046903377</v>
+        <v>1.023947843060046</v>
       </c>
       <c r="K2">
-        <v>1.033476619816118</v>
+        <v>1.030005997019163</v>
       </c>
       <c r="L2">
-        <v>1.051378741284249</v>
+        <v>1.018228388805237</v>
       </c>
       <c r="M2">
-        <v>1.055722397776916</v>
+        <v>1.021896247799</v>
       </c>
       <c r="N2">
-        <v>1.014279502194414</v>
+        <v>1.011978829177811</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026274657509716</v>
+        <v>1.005427837371117</v>
       </c>
       <c r="D3">
-        <v>1.031219440644416</v>
+        <v>1.021362005704439</v>
       </c>
       <c r="E3">
-        <v>1.049804016735474</v>
+        <v>1.012037542770762</v>
       </c>
       <c r="F3">
-        <v>1.054209044575133</v>
+        <v>1.015974038654331</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032765141769633</v>
+        <v>1.042371591951742</v>
       </c>
       <c r="J3">
-        <v>1.031083595773807</v>
+        <v>1.025771619838448</v>
       </c>
       <c r="K3">
-        <v>1.033838879628324</v>
+        <v>1.031728661380363</v>
       </c>
       <c r="L3">
-        <v>1.052374474540896</v>
+        <v>1.022518683444811</v>
       </c>
       <c r="M3">
-        <v>1.056768165742035</v>
+        <v>1.026406528458651</v>
       </c>
       <c r="N3">
-        <v>1.014409663098113</v>
+        <v>1.012584938627668</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026761694012317</v>
+        <v>1.007716807061243</v>
       </c>
       <c r="D4">
-        <v>1.031577615346163</v>
+        <v>1.022988717142216</v>
       </c>
       <c r="E4">
-        <v>1.050571574866488</v>
+        <v>1.015321178558587</v>
       </c>
       <c r="F4">
-        <v>1.055008516555137</v>
+        <v>1.019395700875512</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032849690326169</v>
+        <v>1.042911273939372</v>
       </c>
       <c r="J4">
-        <v>1.031337256182172</v>
+        <v>1.026925154982307</v>
       </c>
       <c r="K4">
-        <v>1.034072815488076</v>
+        <v>1.032817385266977</v>
       </c>
       <c r="L4">
-        <v>1.053019239593225</v>
+        <v>1.025238141400296</v>
       </c>
       <c r="M4">
-        <v>1.05744534237714</v>
+        <v>1.029265539775587</v>
       </c>
       <c r="N4">
-        <v>1.014493757343662</v>
+        <v>1.012968289291626</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026966523605136</v>
+        <v>1.008668739607831</v>
       </c>
       <c r="D5">
-        <v>1.031728246814353</v>
+        <v>1.023665724747234</v>
       </c>
       <c r="E5">
-        <v>1.050894503980588</v>
+        <v>1.016686910343015</v>
       </c>
       <c r="F5">
-        <v>1.05534486862741</v>
+        <v>1.020818765192668</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032884983082129</v>
+        <v>1.043133518840474</v>
       </c>
       <c r="J5">
-        <v>1.031443811488675</v>
+        <v>1.027403904514677</v>
       </c>
       <c r="K5">
-        <v>1.034171048457428</v>
+        <v>1.033269018800967</v>
       </c>
       <c r="L5">
-        <v>1.053290408984004</v>
+        <v>1.026368367805478</v>
       </c>
       <c r="M5">
-        <v>1.057730146073181</v>
+        <v>1.030453786609475</v>
       </c>
       <c r="N5">
-        <v>1.014529079446749</v>
+        <v>1.013127386326156</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027000920010404</v>
+        <v>1.00882797546853</v>
       </c>
       <c r="D6">
-        <v>1.031753541669332</v>
+        <v>1.023779000128169</v>
       </c>
       <c r="E6">
-        <v>1.050948739734295</v>
+        <v>1.016915377981677</v>
       </c>
       <c r="F6">
-        <v>1.055401358527529</v>
+        <v>1.021056819245047</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03289089412914</v>
+        <v>1.043170565217264</v>
       </c>
       <c r="J6">
-        <v>1.031461697667822</v>
+        <v>1.027483929925265</v>
       </c>
       <c r="K6">
-        <v>1.034187535509634</v>
+        <v>1.03334449850955</v>
       </c>
       <c r="L6">
-        <v>1.053335945985794</v>
+        <v>1.026557388328599</v>
       </c>
       <c r="M6">
-        <v>1.057777972829232</v>
+        <v>1.030652511612941</v>
       </c>
       <c r="N6">
-        <v>1.01453500834864</v>
+        <v>1.013153979912244</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026764430645062</v>
+        <v>1.007729567081176</v>
       </c>
       <c r="D7">
-        <v>1.031579627877796</v>
+        <v>1.022997790074411</v>
       </c>
       <c r="E7">
-        <v>1.05057588888745</v>
+        <v>1.015339484514898</v>
       </c>
       <c r="F7">
-        <v>1.055013009909323</v>
+        <v>1.019414775605382</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032850162898461</v>
+        <v>1.042914261697198</v>
       </c>
       <c r="J7">
-        <v>1.031338680308791</v>
+        <v>1.026931576193105</v>
       </c>
       <c r="K7">
-        <v>1.034074128529753</v>
+        <v>1.032823443660442</v>
       </c>
       <c r="L7">
-        <v>1.053022862538687</v>
+        <v>1.025253294075399</v>
       </c>
       <c r="M7">
-        <v>1.057449147471664</v>
+        <v>1.029281470241231</v>
       </c>
       <c r="N7">
-        <v>1.014494229442031</v>
+        <v>1.012970423193479</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025776622000803</v>
+        <v>1.003049694611532</v>
       </c>
       <c r="D8">
-        <v>1.03085316617721</v>
+        <v>1.019673732304015</v>
       </c>
       <c r="E8">
-        <v>1.049019534279231</v>
+        <v>1.008625989917853</v>
       </c>
       <c r="F8">
-        <v>1.053391931374857</v>
+        <v>1.012418828536657</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032677780466816</v>
+        <v>1.041803369028788</v>
       </c>
       <c r="J8">
-        <v>1.030823781490302</v>
+        <v>1.024569800067866</v>
       </c>
       <c r="K8">
-        <v>1.033599144005392</v>
+        <v>1.030593644937265</v>
       </c>
       <c r="L8">
-        <v>1.051715159107542</v>
+        <v>1.019690370812634</v>
       </c>
       <c r="M8">
-        <v>1.056075717601364</v>
+        <v>1.023433166052804</v>
       </c>
       <c r="N8">
-        <v>1.01432351709702</v>
+        <v>1.012185530616011</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024038632487922</v>
+        <v>0.9944463363996339</v>
       </c>
       <c r="D9">
-        <v>1.029574922483181</v>
+        <v>1.013582161178857</v>
       </c>
       <c r="E9">
-        <v>1.046284934469218</v>
+        <v>0.996274857242317</v>
       </c>
       <c r="F9">
-        <v>1.050543486943659</v>
+        <v>0.9995457607034753</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03236601926295</v>
+        <v>1.039690634013805</v>
       </c>
       <c r="J9">
-        <v>1.029913863701649</v>
+        <v>1.020196744707295</v>
       </c>
       <c r="K9">
-        <v>1.032758603136234</v>
+        <v>1.026458654807814</v>
       </c>
       <c r="L9">
-        <v>1.049414322491522</v>
+        <v>1.009428662808411</v>
       </c>
       <c r="M9">
-        <v>1.053659340624081</v>
+        <v>1.012646211924791</v>
       </c>
       <c r="N9">
-        <v>1.01402173046928</v>
+        <v>1.010732188972338</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.022881846831755</v>
+        <v>0.9884481432094195</v>
       </c>
       <c r="D10">
-        <v>1.028724114678334</v>
+        <v>1.009350755120694</v>
       </c>
       <c r="E10">
-        <v>1.044467151794706</v>
+        <v>0.9876450166157946</v>
       </c>
       <c r="F10">
-        <v>1.048649949625134</v>
+        <v>0.9905498672463998</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032152832428658</v>
+        <v>1.038171701023536</v>
       </c>
       <c r="J10">
-        <v>1.029305559443032</v>
+        <v>1.017127703938861</v>
       </c>
       <c r="K10">
-        <v>1.032195912154671</v>
+        <v>1.02355320657505</v>
       </c>
       <c r="L10">
-        <v>1.047882768524748</v>
+        <v>1.002240985640918</v>
       </c>
       <c r="M10">
-        <v>1.052050952021864</v>
+        <v>1.005091869094916</v>
       </c>
       <c r="N10">
-        <v>1.013819907515253</v>
+        <v>1.009712284004908</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.022381408898359</v>
+        <v>0.985783106626837</v>
       </c>
       <c r="D11">
-        <v>1.028356046666514</v>
+        <v>1.007474996055849</v>
       </c>
       <c r="E11">
-        <v>1.043681278815207</v>
+        <v>0.9838032220171776</v>
       </c>
       <c r="F11">
-        <v>1.04783130816894</v>
+        <v>0.9865448326241133</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032059259201236</v>
+        <v>1.037486314390181</v>
       </c>
       <c r="J11">
-        <v>1.029041767242806</v>
+        <v>1.015759522929959</v>
       </c>
       <c r="K11">
-        <v>1.031951720883916</v>
+        <v>1.02225730838624</v>
       </c>
       <c r="L11">
-        <v>1.047220138234264</v>
+        <v>0.9990371892316141</v>
       </c>
       <c r="M11">
-        <v>1.051355098208609</v>
+        <v>1.001725034210976</v>
       </c>
       <c r="N11">
-        <v>1.013732370275914</v>
+        <v>1.00925764285569</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022195594236362</v>
+        <v>0.9847825101778264</v>
       </c>
       <c r="D12">
-        <v>1.028219382107417</v>
+        <v>1.006771431012751</v>
       </c>
       <c r="E12">
-        <v>1.043389556104418</v>
+        <v>0.982359398300129</v>
       </c>
       <c r="F12">
-        <v>1.047527418899382</v>
+        <v>0.9850396215527879</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032024312895603</v>
+        <v>1.037227436903055</v>
       </c>
       <c r="J12">
-        <v>1.028943725036807</v>
+        <v>1.015245162514774</v>
       </c>
       <c r="K12">
-        <v>1.031860936912173</v>
+        <v>1.021770040856703</v>
       </c>
       <c r="L12">
-        <v>1.046974088870725</v>
+        <v>0.997832552061555</v>
       </c>
       <c r="M12">
-        <v>1.051096715206761</v>
+        <v>1.000459163156622</v>
       </c>
       <c r="N12">
-        <v>1.013699833359963</v>
+        <v>1.009086729557819</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022235448908636</v>
+        <v>0.9849976333426556</v>
       </c>
       <c r="D13">
-        <v>1.028248694727437</v>
+        <v>1.00692266170062</v>
       </c>
       <c r="E13">
-        <v>1.043452123231675</v>
+        <v>0.9826698815614823</v>
       </c>
       <c r="F13">
-        <v>1.047592595562851</v>
+        <v>0.9853633073681285</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03203181754258</v>
+        <v>1.037283163618981</v>
       </c>
       <c r="J13">
-        <v>1.028964758034325</v>
+        <v>1.015355777524636</v>
       </c>
       <c r="K13">
-        <v>1.031880414006922</v>
+        <v>1.021874832868417</v>
       </c>
       <c r="L13">
-        <v>1.047026863635645</v>
+        <v>0.9980916262614619</v>
       </c>
       <c r="M13">
-        <v>1.051152135258177</v>
+        <v>1.000731403288418</v>
       </c>
       <c r="N13">
-        <v>1.013706813614964</v>
+        <v>1.009123484735263</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.022366047958444</v>
+        <v>0.9857006179540263</v>
       </c>
       <c r="D14">
-        <v>1.028344748855513</v>
+        <v>1.007416980079292</v>
       </c>
       <c r="E14">
-        <v>1.04365716114429</v>
+        <v>0.9836842242803036</v>
       </c>
       <c r="F14">
-        <v>1.047806184701973</v>
+        <v>0.9864207761940108</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032056374381957</v>
+        <v>1.037465003919603</v>
       </c>
       <c r="J14">
-        <v>1.02903366422209</v>
+        <v>1.015717132893054</v>
       </c>
       <c r="K14">
-        <v>1.031944218287967</v>
+        <v>1.022217152721032</v>
       </c>
       <c r="L14">
-        <v>1.047199798067007</v>
+        <v>0.9989379166874341</v>
       </c>
       <c r="M14">
-        <v>1.05133373839448</v>
+        <v>1.001620714003959</v>
       </c>
       <c r="N14">
-        <v>1.013729681204792</v>
+        <v>1.009243557216441</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.022446523698737</v>
+        <v>0.9861323188341063</v>
       </c>
       <c r="D15">
-        <v>1.028403937950566</v>
+        <v>1.007720632803227</v>
       </c>
       <c r="E15">
-        <v>1.043783516331905</v>
+        <v>0.9843069345339974</v>
       </c>
       <c r="F15">
-        <v>1.047937809261026</v>
+        <v>0.9870699568369616</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032071479627564</v>
+        <v>1.037576468458876</v>
       </c>
       <c r="J15">
-        <v>1.029076111935608</v>
+        <v>1.015938951981141</v>
       </c>
       <c r="K15">
-        <v>1.031983519580001</v>
+        <v>1.022427276537373</v>
       </c>
       <c r="L15">
-        <v>1.047306359400101</v>
+        <v>0.9994573820433041</v>
       </c>
       <c r="M15">
-        <v>1.05144564174062</v>
+        <v>1.002166595234934</v>
       </c>
       <c r="N15">
-        <v>1.013743767817722</v>
+        <v>1.009317264996884</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.022915069022417</v>
+        <v>0.9886235429270563</v>
       </c>
       <c r="D16">
-        <v>1.028748549385093</v>
+        <v>1.009474302038682</v>
       </c>
       <c r="E16">
-        <v>1.044519333644841</v>
+        <v>0.9878976849847297</v>
       </c>
       <c r="F16">
-        <v>1.048704306926075</v>
+        <v>0.9908132660838034</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032159016035009</v>
+        <v>1.038216593324771</v>
       </c>
       <c r="J16">
-        <v>1.029323058273046</v>
+        <v>1.017217656709332</v>
       </c>
       <c r="K16">
-        <v>1.032212106985465</v>
+        <v>1.023638394863779</v>
       </c>
       <c r="L16">
-        <v>1.04792675650549</v>
+        <v>1.002451611688685</v>
       </c>
       <c r="M16">
-        <v>1.052097145923195</v>
+        <v>1.005313222775019</v>
       </c>
       <c r="N16">
-        <v>1.013825714013906</v>
+        <v>1.00974217578707</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.02320909875702</v>
+        <v>0.9901677325609575</v>
       </c>
       <c r="D17">
-        <v>1.028964806491943</v>
+        <v>1.01056248250714</v>
       </c>
       <c r="E17">
-        <v>1.044981223652014</v>
+        <v>0.9901212479840257</v>
       </c>
       <c r="F17">
-        <v>1.049185450978422</v>
+        <v>0.9931312289876219</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032213587844315</v>
+        <v>1.03861062327765</v>
       </c>
       <c r="J17">
-        <v>1.029477856769984</v>
+        <v>1.018009065209418</v>
       </c>
       <c r="K17">
-        <v>1.032355349342369</v>
+        <v>1.024387813514173</v>
       </c>
       <c r="L17">
-        <v>1.048316060154224</v>
+        <v>1.004304733348953</v>
       </c>
       <c r="M17">
-        <v>1.052505974700067</v>
+        <v>1.007260774125221</v>
       </c>
       <c r="N17">
-        <v>1.013877077692258</v>
+        <v>1.010005169017817</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.02338064540736</v>
+        <v>0.991061927979716</v>
       </c>
       <c r="D18">
-        <v>1.029090978048991</v>
+        <v>1.011193019676603</v>
       </c>
       <c r="E18">
-        <v>1.045250755857558</v>
+        <v>0.9914081559724399</v>
       </c>
       <c r="F18">
-        <v>1.049466216999948</v>
+        <v>0.9944727447552723</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032245296863581</v>
+        <v>1.038837793362047</v>
       </c>
       <c r="J18">
-        <v>1.029568110187494</v>
+        <v>1.018466910104599</v>
       </c>
       <c r="K18">
-        <v>1.032438847787075</v>
+        <v>1.024821304079654</v>
       </c>
       <c r="L18">
-        <v>1.048543186780407</v>
+        <v>1.005376862429613</v>
       </c>
       <c r="M18">
-        <v>1.05274449447231</v>
+        <v>1.008387572793711</v>
       </c>
       <c r="N18">
-        <v>1.013907023092843</v>
+        <v>1.010157318668335</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.023439145813917</v>
+        <v>0.991365736929728</v>
       </c>
       <c r="D19">
-        <v>1.029134004743904</v>
+        <v>1.011407315878493</v>
       </c>
       <c r="E19">
-        <v>1.045342679676198</v>
+        <v>0.9918452822589058</v>
       </c>
       <c r="F19">
-        <v>1.049561971810889</v>
+        <v>0.9949284150590926</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032256088144745</v>
+        <v>1.038914805129549</v>
       </c>
       <c r="J19">
-        <v>1.029598877809388</v>
+        <v>1.018622391417357</v>
       </c>
       <c r="K19">
-        <v>1.032467309680074</v>
+        <v>1.024968503767037</v>
       </c>
       <c r="L19">
-        <v>1.048620639992842</v>
+        <v>1.005740969002455</v>
       </c>
       <c r="M19">
-        <v>1.052825833208466</v>
+        <v>1.008770251752817</v>
       </c>
       <c r="N19">
-        <v>1.013917231287996</v>
+        <v>1.010208988224909</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.023177547579022</v>
+        <v>0.9900027319053231</v>
       </c>
       <c r="D20">
-        <v>1.028941600783469</v>
+        <v>1.010446165404543</v>
       </c>
       <c r="E20">
-        <v>1.044931654861325</v>
+        <v>0.9898837283397605</v>
       </c>
       <c r="F20">
-        <v>1.049133816073728</v>
+        <v>0.9928836283824295</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032207745399396</v>
+        <v>1.038568623777594</v>
       </c>
       <c r="J20">
-        <v>1.029461252272531</v>
+        <v>1.017924546353623</v>
       </c>
       <c r="K20">
-        <v>1.032339986205546</v>
+        <v>1.02430778534964</v>
       </c>
       <c r="L20">
-        <v>1.048274286141165</v>
+        <v>1.004106823584059</v>
       </c>
       <c r="M20">
-        <v>1.052462105362632</v>
+        <v>1.007052775549149</v>
       </c>
       <c r="N20">
-        <v>1.013871568318314</v>
+        <v>1.009977082199194</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.022327587841767</v>
+        <v>0.9854939055978286</v>
       </c>
       <c r="D21">
-        <v>1.028316461852625</v>
+        <v>1.007271606406691</v>
       </c>
       <c r="E21">
-        <v>1.043596777473623</v>
+        <v>0.9833859983772237</v>
       </c>
       <c r="F21">
-        <v>1.047743282766806</v>
+        <v>0.9861098718527305</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03204914821893</v>
+        <v>1.037411576168264</v>
       </c>
       <c r="J21">
-        <v>1.02901337466195</v>
+        <v>1.015610894868247</v>
       </c>
       <c r="K21">
-        <v>1.031925431730398</v>
+        <v>1.022116513226971</v>
       </c>
       <c r="L21">
-        <v>1.047148870954418</v>
+        <v>0.9986891156531804</v>
       </c>
       <c r="M21">
-        <v>1.051280258368816</v>
+        <v>1.001359263449991</v>
       </c>
       <c r="N21">
-        <v>1.013722947865565</v>
+        <v>1.009208255861856</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.02179359170223</v>
+        <v>0.9825969457359761</v>
       </c>
       <c r="D22">
-        <v>1.027923715510285</v>
+        <v>1.005235995526217</v>
       </c>
       <c r="E22">
-        <v>1.042758560047488</v>
+        <v>0.979202786757136</v>
       </c>
       <c r="F22">
-        <v>1.046870101853027</v>
+        <v>0.9817487335071501</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031948338405777</v>
+        <v>1.036659174174945</v>
       </c>
       <c r="J22">
-        <v>1.02873144090084</v>
+        <v>1.014120446591762</v>
       </c>
       <c r="K22">
-        <v>1.031664319859697</v>
+        <v>1.020704435079196</v>
       </c>
       <c r="L22">
-        <v>1.046441746330358</v>
+        <v>0.9951978138166375</v>
       </c>
       <c r="M22">
-        <v>1.050537693703513</v>
+        <v>0.9976906343420266</v>
       </c>
       <c r="N22">
-        <v>1.013629378974199</v>
+        <v>1.008713019427804</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.02207663406097</v>
+        <v>0.984138739334619</v>
       </c>
       <c r="D23">
-        <v>1.028131888493373</v>
+        <v>1.006318968611528</v>
       </c>
       <c r="E23">
-        <v>1.04320281346728</v>
+        <v>0.9814300262493731</v>
       </c>
       <c r="F23">
-        <v>1.047332887261256</v>
+        <v>0.9840707248690154</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032001883060763</v>
+        <v>1.03706044675322</v>
       </c>
       <c r="J23">
-        <v>1.028880930799735</v>
+        <v>1.01491404220273</v>
       </c>
       <c r="K23">
-        <v>1.031802783940124</v>
+        <v>1.021456340690337</v>
       </c>
       <c r="L23">
-        <v>1.046816562223371</v>
+        <v>0.9970569787291315</v>
       </c>
       <c r="M23">
-        <v>1.050931293128649</v>
+        <v>0.9996441867209656</v>
       </c>
       <c r="N23">
-        <v>1.013678993381338</v>
+        <v>1.008976705933505</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.023191804062218</v>
+        <v>0.9900773086632626</v>
       </c>
       <c r="D24">
-        <v>1.028952086344197</v>
+        <v>1.010498736993878</v>
       </c>
       <c r="E24">
-        <v>1.044954052494445</v>
+        <v>0.9899910842517808</v>
       </c>
       <c r="F24">
-        <v>1.049157147284768</v>
+        <v>0.9929955408470253</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032210385725152</v>
+        <v>1.038587609756995</v>
       </c>
       <c r="J24">
-        <v>1.029468755247484</v>
+        <v>1.017962748419205</v>
       </c>
       <c r="K24">
-        <v>1.032346928307796</v>
+        <v>1.02434395784176</v>
       </c>
       <c r="L24">
-        <v>1.048293161857418</v>
+        <v>1.004196277512659</v>
       </c>
       <c r="M24">
-        <v>1.052481927851979</v>
+        <v>1.007146789440839</v>
       </c>
       <c r="N24">
-        <v>1.013874057811052</v>
+        <v>1.009989777279911</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024487620613445</v>
+        <v>0.9967150505944375</v>
       </c>
       <c r="D25">
-        <v>1.029905147233473</v>
+        <v>1.015186010408207</v>
       </c>
       <c r="E25">
-        <v>1.046990960958669</v>
+        <v>0.9995341492136309</v>
       </c>
       <c r="F25">
-        <v>1.051278920189581</v>
+        <v>1.002943034278034</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032447561745661</v>
+        <v>1.040255822073158</v>
       </c>
       <c r="J25">
-        <v>1.030149401645568</v>
+        <v>1.021353474384501</v>
       </c>
       <c r="K25">
-        <v>1.032976318339297</v>
+        <v>1.027553069883709</v>
       </c>
       <c r="L25">
-        <v>1.050008730631638</v>
+        <v>1.012139701222551</v>
       </c>
       <c r="M25">
-        <v>1.054283585219596</v>
+        <v>1.015495834581785</v>
       </c>
       <c r="N25">
-        <v>1.01409986238528</v>
+        <v>1.011116612413743</v>
       </c>
     </row>
   </sheetData>
